--- a/dissertacao/prop_stats.xlsx
+++ b/dissertacao/prop_stats.xlsx
@@ -8,19 +8,72 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ralha\Repos\campob\dissertacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46FC5867-CDDE-4D2A-A1F8-F8B48C80D478}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5138133C-3C2D-4E03-8658-5DE2EFDEF958}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="23">
+  <si>
+    <t>gr</t>
+  </si>
+  <si>
+    <t>dt</t>
+  </si>
+  <si>
+    <t>rhob</t>
+  </si>
+  <si>
+    <t>phie</t>
+  </si>
+  <si>
+    <t>sw</t>
+  </si>
+  <si>
+    <t>zone</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>nor</t>
+  </si>
+  <si>
+    <t>cv</t>
+  </si>
+  <si>
+    <t>sou</t>
+  </si>
+  <si>
+    <t>res</t>
+  </si>
+  <si>
+    <t>nres</t>
+  </si>
+  <si>
+    <t>quis</t>
+  </si>
+  <si>
+    <t>Média</t>
+  </si>
+  <si>
+    <t>CV</t>
+  </si>
   <si>
     <t>Norte</t>
   </si>
@@ -31,19 +84,10 @@
     <t>Reservatório</t>
   </si>
   <si>
-    <t>Zona</t>
-  </si>
-  <si>
-    <t>Média</t>
-  </si>
-  <si>
-    <t>CV</t>
-  </si>
-  <si>
     <t>GR (gAPI)</t>
   </si>
   <si>
-    <t>DT (μs/ft)</t>
+    <t>DT (μft/s)</t>
   </si>
   <si>
     <t>RHOB (g/cm³)</t>
@@ -59,7 +103,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -71,6 +115,14 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -93,12 +145,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -110,35 +177,71 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -443,192 +546,472 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="H13" sqref="H13:R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="18" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="B2">
+        <v>41.490940793492797</v>
+      </c>
+      <c r="C2">
+        <v>82.688307409037137</v>
+      </c>
+      <c r="D2">
+        <v>2395.589211136838</v>
+      </c>
+      <c r="E2">
+        <v>0.1993099252816356</v>
+      </c>
+      <c r="F2">
+        <v>0.62652081155507333</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>0.50189873952277064</v>
+      </c>
+      <c r="C3">
+        <v>0.1114339506409375</v>
+      </c>
+      <c r="D3">
+        <v>3.4075124890811832E-2</v>
+      </c>
+      <c r="E3">
+        <v>0.25373680047989727</v>
+      </c>
+      <c r="F3">
+        <v>0.40184491226785329</v>
+      </c>
+      <c r="G3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="B4">
+        <v>43.997887332365252</v>
+      </c>
+      <c r="C4">
+        <v>84.627526650721776</v>
+      </c>
+      <c r="D4">
+        <v>2398.399678798155</v>
+      </c>
+      <c r="E4">
+        <v>0.1960245284872299</v>
+      </c>
+      <c r="F4">
+        <v>0.49388958685828999</v>
+      </c>
+      <c r="G4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="B5">
+        <v>0.59813679191744251</v>
+      </c>
+      <c r="C5">
+        <v>0.12764134501221819</v>
+      </c>
+      <c r="D5">
+        <v>3.6046326007916379E-2</v>
+      </c>
+      <c r="E5">
+        <v>0.24790988537879949</v>
+      </c>
+      <c r="F5">
+        <v>0.52810652746641362</v>
+      </c>
+      <c r="G5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>42.744577366574212</v>
+      </c>
+      <c r="C6">
+        <v>83.658043351508596</v>
+      </c>
+      <c r="D6">
+        <v>2396.9946280426461</v>
+      </c>
+      <c r="E6">
+        <v>0.19766701287218161</v>
+      </c>
+      <c r="F6">
+        <v>0.56019655954798919</v>
+      </c>
+      <c r="G6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="2" t="s">
+      <c r="B7">
+        <v>0.55593863649204822</v>
+      </c>
+      <c r="C7">
+        <v>0.12056662238513161</v>
+      </c>
+      <c r="D7">
+        <v>3.5080726868185592E-2</v>
+      </c>
+      <c r="E7">
+        <v>0.25103428757928647</v>
+      </c>
+      <c r="F7">
+        <v>0.47264633490978047</v>
+      </c>
+      <c r="G7" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="6">
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>29.19846431574021</v>
+      </c>
+      <c r="C8">
+        <v>75.963827800804481</v>
+      </c>
+      <c r="D8">
+        <v>2413.90594512702</v>
+      </c>
+      <c r="E8">
+        <v>0.18713558597091531</v>
+      </c>
+      <c r="F8">
+        <v>0.73466045048421358</v>
+      </c>
+      <c r="G8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0.62012743769164735</v>
+      </c>
+      <c r="C9">
+        <v>0.13233369134914799</v>
+      </c>
+      <c r="D9">
+        <v>3.8827187044226247E-2</v>
+      </c>
+      <c r="E9">
+        <v>0.27838670886408651</v>
+      </c>
+      <c r="F9">
+        <v>0.34906934879334961</v>
+      </c>
+      <c r="G9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>32.946655982110457</v>
+      </c>
+      <c r="C10">
+        <v>78.092807124849699</v>
+      </c>
+      <c r="D10">
+        <v>2409.2266059302228</v>
+      </c>
+      <c r="E10">
+        <v>0.19004961794438111</v>
+      </c>
+      <c r="F10">
+        <v>0.68638652130351574</v>
+      </c>
+      <c r="G10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>0.62947729084966086</v>
+      </c>
+      <c r="C11">
+        <v>0.13617662042020401</v>
+      </c>
+      <c r="D11">
+        <v>3.7968220002634598E-2</v>
+      </c>
+      <c r="E11">
+        <v>0.27171090529887187</v>
+      </c>
+      <c r="F11">
+        <v>0.39379023167840921</v>
+      </c>
+      <c r="G11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="H13" s="8"/>
+      <c r="I13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L13" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="N13" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="P13" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="R13" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H14" s="9"/>
+      <c r="I14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J14" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="L14" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="N14" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="O14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="P14" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="R14" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="H15" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="6">
+        <f>B2</f>
         <v>41.490940793492797</v>
       </c>
-      <c r="C3" s="6">
+      <c r="J15" s="14">
+        <f>B3</f>
         <v>0.50189873952277064</v>
       </c>
-      <c r="D3" s="6">
+      <c r="K15" s="6">
+        <f>C2</f>
         <v>82.688307409037137</v>
       </c>
-      <c r="E3" s="6">
+      <c r="L15" s="14">
+        <f>C3</f>
+        <v>0.1114339506409375</v>
+      </c>
+      <c r="M15" s="6">
+        <f>D2</f>
+        <v>2395.589211136838</v>
+      </c>
+      <c r="N15" s="14">
+        <f>D3</f>
+        <v>3.4075124890811832E-2</v>
+      </c>
+      <c r="O15" s="7">
+        <f>E2</f>
+        <v>0.1993099252816356</v>
+      </c>
+      <c r="P15" s="14">
+        <f>E3</f>
+        <v>0.25373680047989727</v>
+      </c>
+      <c r="Q15" s="7">
+        <f>F2</f>
+        <v>0.62652081155507333</v>
+      </c>
+      <c r="R15" s="6">
+        <f>F3</f>
+        <v>0.40184491226785329</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="H16" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" s="2">
+        <f>B4</f>
+        <v>43.997887332365252</v>
+      </c>
+      <c r="J16" s="15">
+        <f>B5</f>
         <v>0.59813679191744251</v>
       </c>
-      <c r="F3" s="6">
-        <v>2395.589211136838</v>
-      </c>
-      <c r="G3" s="6">
+      <c r="K16" s="2">
+        <f>C4</f>
+        <v>84.627526650721776</v>
+      </c>
+      <c r="L16" s="15">
+        <f>C5</f>
+        <v>0.12764134501221819</v>
+      </c>
+      <c r="M16" s="2">
+        <f>D4</f>
+        <v>2398.399678798155</v>
+      </c>
+      <c r="N16" s="15">
+        <f>D5</f>
+        <v>3.6046326007916379E-2</v>
+      </c>
+      <c r="O16" s="3">
+        <f>E4</f>
+        <v>0.1960245284872299</v>
+      </c>
+      <c r="P16" s="15">
+        <f>E5</f>
+        <v>0.24790988537879949</v>
+      </c>
+      <c r="Q16" s="3">
+        <f>F4</f>
+        <v>0.49388958685828999</v>
+      </c>
+      <c r="R16" s="2">
+        <f>F5</f>
+        <v>0.52810652746641362</v>
+      </c>
+    </row>
+    <row r="17" spans="8:18" x14ac:dyDescent="0.25">
+      <c r="H17" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I17" s="6">
+        <f>B6</f>
+        <v>42.744577366574212</v>
+      </c>
+      <c r="J17" s="14">
+        <f>B7</f>
         <v>0.55593863649204822</v>
       </c>
-      <c r="H3" s="7">
-        <v>0.1993099252816356</v>
-      </c>
-      <c r="I3" s="6">
-        <v>0.62012743769164735</v>
-      </c>
-      <c r="J3" s="7">
-        <v>0.62652081155507333</v>
-      </c>
-      <c r="K3" s="6">
-        <v>0.62947729084966086</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="8">
-        <v>43.997887332365252</v>
-      </c>
-      <c r="C4" s="8">
-        <v>0.1114339506409375</v>
-      </c>
-      <c r="D4" s="8">
-        <v>84.627526650721776</v>
-      </c>
-      <c r="E4" s="8">
-        <v>0.12764134501221819</v>
-      </c>
-      <c r="F4" s="8">
-        <v>2398.399678798155</v>
-      </c>
-      <c r="G4" s="8">
+      <c r="K17" s="6">
+        <f>C6</f>
+        <v>83.658043351508596</v>
+      </c>
+      <c r="L17" s="14">
+        <f>C7</f>
         <v>0.12056662238513161</v>
       </c>
-      <c r="H4" s="9">
-        <v>0.1960245284872299</v>
-      </c>
-      <c r="I4" s="8">
-        <v>0.13233369134914799</v>
-      </c>
-      <c r="J4" s="9">
-        <v>0.49388958685828999</v>
-      </c>
-      <c r="K4" s="8">
-        <v>0.13617662042020401</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="6">
-        <v>42.744577366574212</v>
-      </c>
-      <c r="C5" s="6">
-        <v>3.4075124890811832E-2</v>
-      </c>
-      <c r="D5" s="6">
-        <v>83.658043351508596</v>
-      </c>
-      <c r="E5" s="6">
-        <v>3.6046326007916379E-2</v>
-      </c>
-      <c r="F5" s="6">
+      <c r="M17" s="6">
+        <f>D6</f>
         <v>2396.9946280426461</v>
       </c>
-      <c r="G5" s="6">
+      <c r="N17" s="14">
+        <f>D7</f>
         <v>3.5080726868185592E-2</v>
       </c>
-      <c r="H5" s="7">
+      <c r="O17" s="7">
+        <f>E6</f>
         <v>0.19766701287218161</v>
       </c>
-      <c r="I5" s="6">
-        <v>3.8827187044226247E-2</v>
-      </c>
-      <c r="J5" s="7">
+      <c r="P17" s="14">
+        <f>E7</f>
+        <v>0.25103428757928647</v>
+      </c>
+      <c r="Q17" s="7">
+        <f>F6</f>
         <v>0.56019655954798919</v>
       </c>
-      <c r="K5" s="6">
-        <v>3.7968220002634598E-2</v>
+      <c r="R17" s="6">
+        <f>F7</f>
+        <v>0.47264633490978047</v>
       </c>
     </row>
   </sheetData>

--- a/dissertacao/prop_stats.xlsx
+++ b/dissertacao/prop_stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ralha\Repos\campob\dissertacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5138133C-3C2D-4E03-8658-5DE2EFDEF958}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2022ADA-9170-4661-8D29-14B254E1CC3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -900,8 +900,8 @@
         <v>0.1114339506409375</v>
       </c>
       <c r="M15" s="6">
-        <f>D2</f>
-        <v>2395.589211136838</v>
+        <f>D2/1000</f>
+        <v>2.395589211136838</v>
       </c>
       <c r="N15" s="14">
         <f>D3</f>
@@ -945,8 +945,8 @@
         <v>0.12764134501221819</v>
       </c>
       <c r="M16" s="2">
-        <f>D4</f>
-        <v>2398.399678798155</v>
+        <f>D4/1000</f>
+        <v>2.398399678798155</v>
       </c>
       <c r="N16" s="15">
         <f>D5</f>
@@ -990,8 +990,8 @@
         <v>0.12056662238513161</v>
       </c>
       <c r="M17" s="6">
-        <f>D6</f>
-        <v>2396.9946280426461</v>
+        <f>D6/1000</f>
+        <v>2.3969946280426462</v>
       </c>
       <c r="N17" s="14">
         <f>D7</f>
